--- a/z0bug_odoo/z0bug_odoo/data/asset_category.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/asset_category.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Autovetture, motoveicoli e simili</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.misc</t>
+    <t xml:space="preserve">z0bug.jou_misc</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.coa_123330</t>
@@ -253,14 +253,15 @@
   <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.11"/>
